--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -480,167 +480,35 @@
 2.班级列表页面以及详情 -
 3.日志查询页面----增加pd/qa环境选择 +</t>
   </si>
+  <si>
+    <t>2020/2/3
+~2020/2/7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/2/10
+~2020/2/14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播管理后台人数统计 实时刷新下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.PPT白屏优化：0.4* 70 / 180 = 0.156</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,202 +527,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -862,251 +550,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,57 +570,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1465,25 +864,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="187" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="186.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="129" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="129" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="129" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="129" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="129" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="129" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1515,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="129" customHeight="1" spans="1:2">
+    <row r="5" spans="1:2" ht="129" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="129" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="129" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="129" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="129" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="129" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="129" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="129" customHeight="1" spans="1:2">
+    <row r="9" spans="1:2" ht="129" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1555,7 +954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="129" customHeight="1" spans="1:2">
+    <row r="10" spans="1:2" ht="129" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1563,7 +962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="129" customHeight="1" spans="1:2">
+    <row r="11" spans="1:2" ht="129" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1571,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="129" customHeight="1" spans="1:2">
+    <row r="12" spans="1:2" ht="129" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="129" customHeight="1" spans="1:2">
+    <row r="13" spans="1:2" ht="129" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="129" customHeight="1" spans="1:2">
+    <row r="14" spans="1:2" ht="129" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1595,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="129" customHeight="1" spans="1:2">
+    <row r="15" spans="1:2" ht="129" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1603,7 +1002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="129" customHeight="1" spans="1:2">
+    <row r="16" spans="1:2" ht="129" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,7 +1010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="129" customHeight="1" spans="1:2">
+    <row r="17" spans="1:2" ht="129" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1619,7 +1018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="129" customHeight="1" spans="1:2">
+    <row r="18" spans="1:2" ht="129" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1627,7 +1026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="129" customHeight="1" spans="1:2">
+    <row r="19" spans="1:2" ht="129" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="129" customHeight="1" spans="1:2">
+    <row r="20" spans="1:2" ht="129" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1643,7 +1042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="129" customHeight="1" spans="1:2">
+    <row r="21" spans="1:2" ht="129" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1651,7 +1050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="129" customHeight="1" spans="1:2">
+    <row r="22" spans="1:2" ht="129" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1659,7 +1058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="129" customHeight="1" spans="1:2">
+    <row r="23" spans="1:2" ht="129" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1667,7 +1066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="129" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="129" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +1074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="129" customHeight="1" spans="1:2">
+    <row r="25" spans="1:2" ht="129" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1683,7 +1082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="129" customHeight="1" spans="1:2">
+    <row r="26" spans="1:2" ht="129" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1691,7 +1090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="129" customHeight="1" spans="1:2">
+    <row r="27" spans="1:2" ht="129" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1699,7 +1098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="129" customHeight="1" spans="1:2">
+    <row r="28" spans="1:2" ht="129" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1708,28 +1107,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="70.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="187" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="186.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" ht="187" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="186.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="187" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="186.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" ht="187" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="186.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" ht="129" customHeight="1" spans="1:2">
+    <row r="5" spans="1:2" ht="129" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1769,7 +1167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" ht="129" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="129" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1777,7 +1175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" ht="129" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="129" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1785,7 +1183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="129" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="129" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1793,7 +1191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="129" customHeight="1" spans="1:2">
+    <row r="9" spans="1:2" ht="129" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" ht="129" customHeight="1" spans="1:2">
+    <row r="10" spans="1:2" ht="129" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,7 +1207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" ht="129" customHeight="1" spans="1:2">
+    <row r="11" spans="1:2" ht="129" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1817,7 +1215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" ht="129" customHeight="1" spans="1:2">
+    <row r="12" spans="1:2" ht="129" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1825,7 +1223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" ht="129" customHeight="1" spans="1:2">
+    <row r="13" spans="1:2" ht="129" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1833,7 +1231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="129" customHeight="1" spans="1:2">
+    <row r="14" spans="1:2" ht="129" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1841,7 +1239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="129" customHeight="1" spans="1:2">
+    <row r="15" spans="1:2" ht="129" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +1247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="129" customHeight="1" spans="1:2">
+    <row r="16" spans="1:2" ht="129" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1857,7 +1255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="129" customHeight="1" spans="1:2">
+    <row r="17" spans="1:2" ht="129" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1865,7 +1263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="129" customHeight="1" spans="1:2">
+    <row r="18" spans="1:2" ht="129" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1873,7 +1271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" ht="129" customHeight="1" spans="1:2">
+    <row r="19" spans="1:2" ht="129" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1881,7 +1279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" ht="129" customHeight="1" spans="1:2">
+    <row r="20" spans="1:2" ht="129" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,7 +1287,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" ht="129" customHeight="1" spans="1:2">
+    <row r="21" spans="1:2" ht="129" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1897,7 +1295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" ht="129" customHeight="1" spans="1:2">
+    <row r="22" spans="1:2" ht="129" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -1905,7 +1303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" ht="129" customHeight="1" spans="1:2">
+    <row r="23" spans="1:2" ht="129" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1913,7 +1311,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" ht="129" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="129" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1921,7 +1319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" ht="129" customHeight="1" spans="1:2">
+    <row r="25" spans="1:2" ht="129" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1929,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" ht="129" customHeight="1" spans="1:2">
+    <row r="26" spans="1:2" ht="129" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -1937,7 +1335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" ht="129" customHeight="1" spans="1:2">
+    <row r="27" spans="1:2" ht="129" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -1946,25 +1344,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="53.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="129" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="129" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -357,6 +357,223 @@
 3.风控质检过关页面 添加老师类型筛选和显示列 +</t>
   </si>
   <si>
+    <t>2019/2/11
+~2019/2/15</t>
+  </si>
+  <si>
+    <t>1.ClassIn后台管理系统：查询页面调整
+2.风控中AI质检人工确认页面中，AI违规小类的展现以及交互方式调整----@白杨
+3.a.日志查询页面 客户端分页改为服务端分页@朱江南
+  b.文件上传页面增加字段(文件)、删除本条记录
+4.path-to-regexp源码深入理解，即路径解析成为正则的算法@深入了解</t>
+  </si>
+  <si>
+    <t>2019/2/18
+~2019/2/22</t>
+  </si>
+  <si>
+    <t>1.ClassIn后台管理系统：
+    b.课程列表增加“业务类型”的筛选以及显示列 +
+2.班级列表页面以及详情 +
+3.日志查询页面----增加pd/qa环境选择 +</t>
+  </si>
+  <si>
+    <t>2019/2/25
+~2019/3/1</t>
+  </si>
+  <si>
+    <t>1.Track 监控-日志文件可能不是.txt,能不能在新页面中显示内容？@江南
+2.风控系统中修改部分违规场景的名称@白杨
+3.测试迭代class in （培训软件）web管理系统
+    a)班级详情里增加课程列表的显示
+    b)班级列表里的列展示内容调整,增加业务类型等筛选项
+    c)输入电话号码实时从后台搜索输入建议</t>
+  </si>
+  <si>
+    <t>2019/3/4
+~2019/3/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.迭代class in （培训软件）web管理系统
+    a)班级详情班主任、创建人显示更新;班级学生列表改换成最大页数后，选择分页条数操作框消失;Vue自定义指令实现按键查询功能 +
+    b)读取业务配置文件(*.json文件)应该动态式取代静态式，因为变动频率较快 +
+    c)加入查询日志tab页面;查询条件添加以及分组展示 +
+3.对短期和长期效益进行权衡。考虑引进Vuex(状态管理)
+4.Json字符串展示组件（Vue）++</t>
+  </si>
+  <si>
+    <t>2019/3/11
+~2019/3/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.培训软件后台管理----增加Tab：设置不可新建课程时间界面 +
+2.IE9下的兼容性bug查找原因以及fix +
+3.JsonViewer控件优化2 +
+</t>
+  </si>
+  <si>
+    <t>2019/3/18
+~2019/3/22</t>
+  </si>
+  <si>
+    <t>1.业务类型改为从后台接口动态获取,并能增加(仅管理员)
+2.schedule-calendar.vue组件@0.0.1
+3.fullcalendar控件源码分析(typescript,sass,gulp,lint,rollup,karma,etc.)
+4.打包代码的体积大小分析与优化</t>
+  </si>
+  <si>
+    <t>2019/3/25
+~2019/3/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.业务类型增加了一个，应该保存到状态里。（维护设置里面）;对课程的删除权限业务规则更改
+2.督导pc客户端提供按照省市过滤监课;rtc监控（桥平）修改订单+uid访问地理位置接口，返回省市编号
+3.fullcalendar日历应用到课程表
+4.ClassIn Web canvas画布笔迹调研 </t>
+  </si>
+  <si>
+    <t>2019/4/1
+~2019/4/4</t>
+  </si>
+  <si>
+    <t>1.前端库选型、开发测试环境的搭建;细分一下UI层的模块划分;pdf控件调研、择优选择.
+2.webClient连接webRtcMsgServer, 可以正确响应回放的控制消息事件, 初始化渲染层</t>
+  </si>
+  <si>
+    <t>2019/4/8
+~2019/4/12</t>
+  </si>
+  <si>
+    <t>1.track监控崩溃日志查询----增加日志类型（mac log、mac core）;有课管理后台样式更新（下拉框高度增加）等等
+2.ppt消息的同步播放动画；pdf的web端渲染(简单的)、与服务端同步
+3.服务端笔迹的同步绘制等操作</t>
+  </si>
+  <si>
+    <t>2019/4/15
+~2019/4/19</t>
+  </si>
+  <si>
+    <t>1.track监控崩溃文件上传----引用计数的统计饼图;有课后台管理：a.上传添加平台版本参数;b.添加账号-----成功后表单回复到初始值
+2.ppt、笔迹等的同步
+3.网页后台版本发布页面，提供不同的平台版本发布的功能(pc，安卓，mac，ios)</t>
+  </si>
+  <si>
+    <t>2019/4/22
+~2019/4/26</t>
+  </si>
+  <si>
+    <t>1.笔迹图标完善/激光笔删除/删除课件/样式更新（滚动条）
+2.a) bug修复(笔迹消息过来时有可能课件元消息还没有拿到的bug);
+  b) 同步白板消息类型（文字、图片等）;以及删除;
+  c) 用户列表UI组件
+3.track监控----文件类型计数占比统计图;提取文件路径中的MD5值并显示,上传文件.
+4.风控web----
+5.有课Web后台：Android版本下载支持二维码扫描;上传mac版（文件略大）,很慢，看下什么原因</t>
+  </si>
+  <si>
+    <t>2019/4/28
+~2019/4/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.风控web----a) 首页;
+             b) 上传版本页面;
+2.音量条控件（使用css动画模拟音量调节）
+</t>
+  </si>
+  <si>
+    <t>2019/5/6
+~2019/5/10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.风控web----a) bug修复（websocket断开后无限重连的bug,文件上传成功后清空界面历史提交信息）
+             b) 下载软件增加权限：限制只有风控相关人员才提供下载入口
+2.有课Web----a) 登录界面 -
+             b) 课程列表界面 +
+             c) 视频用户列表（上下台、开闭麦、音量调节等功能）+
+             d) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他优化：部分公共功能抽取出来，代码整合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;历史课程Dom树子节点事件委托方式 +
+</t>
+    </r>
+  </si>
+  <si>
+    <t>2019/5/13
+~2019/5/17</t>
+  </si>
+  <si>
+    <t>1.有课web管理后台----a) 已结束的可以删除(二次确认提示);创建人（不管其管理权限如何）都可以删除该课程
+2.有课Web端----a) 使用WebAudio API实时获取MediaStream中的音量大小，并且以音量进度条显示出来
+               b) bug-fixed：pdf渲染函数是异步方式执行的，依赖于它的消息（如笔迹）需要延迟到渲染完成之后执行，ppt或者其他课件资源也类似问题;删除课件等资源也要在异步渲染完成之后执行
+               c）窗口resize函数的完成
+               d) loading等待旋转动画的组件;message提示组件
+3.track监控----a) 崩溃列表页面中查看日志修改为新的日志查询服务</t>
+  </si>
+  <si>
+    <t>2019/5/20
+~2019/5/24</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 历史课程列表页按照@李航设计的ui展示
+               b) 课件资源区域计算宽高比16:9;网络状态信号条展示/css动画/优化2(按照UI重做)
+               c) InfiniteScroll组件的实现;加入体验优化的异常处理.
+               d) 用户列表溢出时，给一个鼠标拖拽移动实现</t>
+  </si>
+  <si>
+    <t>2019/5/27
+~2019/5/31</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 顶部用户视频列表溢出宽度时，添加下一页、上一页按钮(样式等);
+               b) 获取待上课程列表,暂时从@梦松处接口获取;
+               c) 优化：图片预加载.preload.待上课程卡片调整跟ui一致;</t>
+  </si>
+  <si>
+    <t>2019/6/3
+~2019/6/6</t>
+  </si>
+  <si>
+    <t>1.有课Web端前后台联调----a) rtc_gateway发过来的消息体json格式有所变化,bug-fixed;白板与pdf滚动同步的bug-fixed;pdf翻页页码超过总页数的bug。
+                  b) 激光笔删除优化;文本位置bug-fixed;
+                  c) 窗口大小缩放时保持笔迹等等位置等比缩放;</t>
+  </si>
+  <si>
+    <t>2019/6/10
+~2019/6/14</t>
+  </si>
+  <si>
+    <t>1.有课Web端前后台联调----a) ppt激光笔定位bug-fixed;课件资源的显示顺序&lt;笔迹、激光笔等不需要调整课件顺序&gt;bug-fixed;ppt关闭bug；pdf中的CIA fonts需要cmap文件才能显示的bug
+                        b) 数字常量提取出来，用枚举类型代替
+                        c) 文字、图片按屏幕大小等比例缩放
+2.web管理后台----邀请码查询条件
+3.track监控页面：track_detail.vue terminal终端增加了105、106、107、104等未知类型，导致的空引用的bug-fixed</t>
+  </si>
+  <si>
     <t>1.前端页面之间跳转更合理，如增加导航栏等。
 2.UI风格（颜色、对齐等）尽量统一。</t>
   </si>
@@ -460,55 +677,478 @@
    a)风控AI质检人工确认页面的小改动</t>
   </si>
   <si>
-    <t>2019/2/11
-~2019/2/15</t>
-  </si>
-  <si>
-    <t>1.ClassIn后台管理系统：查询页面调整
-2.风控中AI质检人工确认页面中，AI违规小类的展现以及交互方式调整----@白杨
-3.a.日志查询页面 客户端分页改为服务端分页@朱江南
-  b.文件上传页面增加字段(文件)、删除本条记录
-4.path-to-regexp源码深入理解，即路径解析成为正则的算法@深入了解</t>
-  </si>
-  <si>
-    <t>2019/2/18
-~2019/2/22</t>
-  </si>
-  <si>
     <t>1.ClassIn后台管理系统：a.历史版本增加一个字段：显示/隐藏,首页相应地同步 ?
     b.课程列表增加“业务类型”的筛选以及显示列 +
 2.班级列表页面以及详情 -
 3.日志查询页面----增加pd/qa环境选择 +</t>
   </si>
   <si>
-    <t>2020/2/3
-~2020/2/7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/2/10
-~2020/2/14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播管理后台人数统计 实时刷新下</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.PPT白屏优化：0.4* 70 / 180 = 0.156</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1.风控系统中读取业务配置文件(*.json文件)应该动态式取代静态式，因为变动频率较快@白杨
+2.迭代class in （培训软件）web管理系统
+    a)班级详情班主任、创建人显示更新;班级学生列表改换成最大页数后，选择分页条数操作框消失;Vue自定义指令实现按键查询功能 +
+    b)读取业务配置文件(*.json文件)应该动态式取代静态式，因为变动频率较快 +
+    c)加入查询日志tab页面;查询条件添加以及分组展示 +
+3.对短期和长期效益进行权衡。考虑引进Vuex(状态管理)
+4.Json字符串展示组件（Vue）++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.培训软件后台管理----增加Tab：设置不可新建课程时间界面 +
+2.IE9下的兼容性bug查找原因以及fix +
+</t>
+  </si>
+  <si>
+    <t>1.笔迹图标完善/激光笔删除/删除课件/样式更新（滚动条）
+2.a) bug修复(笔迹消息过来时有可能课件元消息还没有拿到的bug);
+  b) 同步白板消息类型（文字、图片等）;以及删除;
+  c) 用户列表UI组件
+3.track监控----文件类型计数占比统计图;提取文件路径中的MD5值并显示,上传文件.
+4.有课Web后台：Android版本下载支持二维码扫描,微信扫描二维码白屏的bug修复;上传mac版（文件略大）,很慢，看下什么原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.风控web----a) bug修复（websocket断开后无限重连的bug,文件上传成功后清空界面历史提交信息）
+             b) 下载软件增加权限：限制只有风控相关人员才提供下载入口
+2.有课Web----a) 登录界面 -
+             b) 课程列表界面 +
+             c) 视频用户列表（上下台、开闭麦、音量调节等功能）+
+             d) 其他优化：部分公共功能抽取出来，代码整合;历史课程Dom树子节点事件委托方式 +
+</t>
+  </si>
+  <si>
+    <t>2019/6/17
+~2019/6/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课Web端前后台联调----a) bug-fixed:首次加载ppt、pdf由于是异步加载过程，需要等待加载完成执行回调，才能正确同步PC端
+                        b) 上下台、开闭麦同步
+                        c) 窗口resize时pdf、笔迹等等等比例缩放bug-fixed
+                        d) 学生笔迹工具栏(仅限web客户端)
+2.日志合并查询@周定远 @江南
+</t>
+  </si>
+  <si>
+    <t>2019/6/24
+~2019/6/28</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 笔迹客户端ui控件、绘制、鼠标事件，发送到服务端，以及擦除笔迹
+              b) 别人写笔记时鼠标旁边加上他的名字
+              c) 加入视频码率的显示;首次进入房间，白板没有滚动到pc同步的位置;窗口缩放大小时，发送者的笔迹位置会出现错误;老师始终在台上.
+2.Track监控----加入转码查询页面,删除转码记录、撤销转码等
+3.有课管理后台----角色权限管理:主管只能添加老师和游客这两种角色，不能添加为管理员</t>
+  </si>
+  <si>
+    <t>2019/7/1
+~2019/7/5</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 发送笔迹时，unitId会出现重复的bug（对自己而言）
+               b) 优化：多个点合并为一条线,减少svg结点数量
+2.有课web管理后台----a) 学霸君有课用户协议-单独页面
+3.@周定远 日志查询，按照日期倒序排序</t>
+  </si>
+  <si>
+    <t>2019/7/8
+~2019/7/12</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 屏幕共享
+               b) 点赞
+               c) 新的课程列表样式调整
+               d) 音视频设备列表选择
+2.track监控----转码查询页面，查询、撤销、排序、删除等</t>
+  </si>
+  <si>
+    <t>2019/7/15
+~2019/7/19</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 头像拖拽功能 -
+               b) 优化：ppt在翻页等发消息时，会不断创建iframe,性能消耗很大;
+               c) bug: 窗口缩放大小时，笔迹/图片/文字/激光笔的位置错误(在PPT、pdf中,收发端),(仅白板)课件顺序会错乱;弹出一些错误时，页面链接到课堂列表页;sdk错误提示消息;首次进入房间，白板没有滚动到pc同步的位置</t>
+  </si>
+  <si>
+    <t>2019/7/22
+~2019/7/26</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 多个PPT笔迹同步会有问题;服务端同步过来的点赞消息；用户选择的设备ID应该同步发送到网关那边；主讲课件没有显示；媒体SDK出错时弹出确认对话框;(摄像头被占用的情况下，或者用户刷新列表与mediaSDK独立服务（顺序不确定）导致头像stream没有正确导入到UI（在F5刷新的时候）;
+               b) 音量条减少为一个定时器;代码整合、抽取、可读性.</t>
+  </si>
+  <si>
+    <t>2019/7/29
+~2019/8/2</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 用户视频控件的长宽根据实际屏幕大小进行等比例缩放;用户视频控件拖拽开闭麦功能;不同大小屏幕的课件区域、聊天室自适应;不同页面窗口判断自己的时候会出bug;音量条继续优化--中位值取代方差计算的方式。</t>
+  </si>
+  <si>
+    <t>2019/8/5
+~2019/8/9</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 助教身份显示;b) 老师不在课堂时，给一个空的头像占位;c) web客户端, 老师退出再进来, 再也看不到老师, 需要刷新web端才能看到;d) web显示笔画时, 不要显示名字;台上举手, 自己看不到;聊天的颜色, 老师没有金框字;加书签界面错误;结束课程时，多条消息叠加在了一起
+      e) pdf快速滚动20% -&gt; 0%&lt;统计方法不准确，通过性能监控窗口&gt;</t>
+  </si>
+  <si>
+    <t>2019/8/12
+~2019/8/16</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 登录错误消息提示中文；连接提示框放在最下面一层;b)player.js只影响到web端的功能，不影响其他端的功能
+c) 只支持Chrome浏览器的提示.
+d) web目录动态化</t>
+  </si>
+  <si>
+    <t>2019/8/19
+~2019/8/23</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 公开课支持点赞;课程列表页新版布局;
+               b) 悬停笔（手写板上）的bug-fixed;老师或者助教进入房间后强制踢出房间;加点赞声音。
+               c) PPT/word在pc端拖动的时候,显示在转码，是有问题的;上下台顺序错乱了,自己始终在第二个位置
+               d) 笔迹擦除顺序要在写之后;大头像按照白板区域进行参考;邀请码前端验证;音量大小计算按照janus的分发事件方式
+               e) Web Track监控查询条件更改</t>
+  </si>
+  <si>
+    <t>2019/8/26
+~2019/8/30</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 字体不能准确适应web端;自己在台上的话，会占据一个空位，然后又掉下来;课堂标题样式调整(字体下面被遮掉了);</t>
+  </si>
+  <si>
+    <t>2019/9/2
+~2019/9/6</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 播放音视频;
+               b) 定时器;
+               c) 笔迹sync消息过多的时候，ui响应上面的优化(界面卡死);</t>
+  </si>
+  <si>
+    <t>2019/9/9
+~2019/9/13</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 浏览器支持情况;观察者进房间, 举手按钮可以点击;用户列表的头像在小屏幕下调整到合适的大小</t>
+  </si>
+  <si>
+    <t>2019/9/16
+~2019/9/20</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a) 播放mp4视频过程中, 老师到白板. web里的视频还在播放, 能听到声音;上下台之后，点赞数不对了;老师添加图片，拖动图片会把之前的笔迹覆盖;其他端登录同一账号时，提示错误，并且未跳转到登录界面;ppt中的mp3和视频无法播放
+b) 修改用户信息的界面/交互</t>
+  </si>
+  <si>
+    <t>2019/9/23
+~2019/9/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课Web端----a) 小工具掷骰子、排行榜（客户端）;服务端同步.
+</t>
+  </si>
+  <si>
+    <t>2019/10/8
+~2019/10/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课Web端----a) 小工具联调，bug修复.
+</t>
+  </si>
+  <si>
+    <t>2019/10/14
+~2019/10/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课Web端----a) 小工具上线。
+</t>
+  </si>
+  <si>
+    <t>2019/10/21
+~2019/10/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课Web端----a) 小工具上线。
+               b) Android端ppt字体bug:test上面，ios、android、ipad会把times new roman替换成LiberationSerif字体，PC保持不变
+               c) 线索数据统计:总体沙漏；用户数据统计；排行榜统计;服务器返回无数据或错误的显示组件;多个查询条件抽取成通用组件。
+</t>
+  </si>
+  <si>
+    <t>2019/10/28
+~2019/11/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课Web端----a) PPT触发动作同步
+               b) 线索数据统计初版联调
+               c) 自定义漏斗图组件实现
+</t>
+  </si>
+  <si>
+    <t>2019/11/04
+~2019/11/08</t>
+  </si>
+  <si>
+    <t>1.海豚线索系统Web端----a) 自定义排行榜组件实现
+                      b) 数据统计交互方式替换
+2.有课Web端----a) 课程列表、排行榜等无数据时的显示样式更新；
+               b) web上视频拖下来，上面就空了，PC上是有占位的；pc上视频时循环播放的，我们这边就放一遍。</t>
+  </si>
+  <si>
+    <t>2019/11/11
+~2019/11/15</t>
+  </si>
+  <si>
+    <t>1.海豚线索系统Web端----a) 隐藏掉数据统计模块
+                      b) 总量统计tab页 前端计算总计行
+2.有课Web端----a) 课程列表、排行榜等无数据时的显示样式更新；
+               b) web上           视频拖下来，上面就空了，PC上是有占位的；pc上视频时循环播放的，我们这边就放一遍。</t>
+  </si>
+  <si>
+    <t>2019/11/18
+~2019/11/22</t>
+  </si>
+  <si>
+    <t>1.有课Web端----a)自己不必一定排在第二个位置、按照服务器发过来的顺序即可;
+                 自己跟其他人的进房同步状态改为跟其他人一起发过来了;</t>
+  </si>
+  <si>
+    <t>2019/11/25
+~2019/11/29</t>
+  </si>
+  <si>
+    <t>1.海豚线索系统----a) 商品管理之商品列表;订单管理之订单查询.
+2.微信h5支付----a) 熟悉环境、开发调试工具等.
+3.网页直播（微信）----a) 初始化项目.</t>
+  </si>
+  <si>
+    <t>2019/12/2
+~2019/12/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.海豚线索系统----a) 商品管理之商品列表;订单管理之订单查询.与服务端联调
+2.微信h5支付----a) 修改产品课程时间
+3.网页直播（微信）----a) </t>
+  </si>
+  <si>
+    <t>2019/12/9
+~2019/12/13</t>
+  </si>
+  <si>
+    <t>1.海豚线索系统----a) 订单管理之订单查询.与服务端联调修复bug以及优化
+2.微信h5支付----a) 修改产品课程时间、产品列表联调以及bug修复等</t>
+  </si>
+  <si>
+    <t>2019/12/16
+~2019/12/20</t>
+  </si>
+  <si>
+    <t>1.网页直播（微信）----a) 
+2.微信h5支付----a) 正价课产品修改上课老师 b)商品没有关联班级的bug-fixed
+3.android,ios礼品与奖卡信息展示h5页面</t>
+  </si>
+  <si>
+    <t>2019/12/23
+~2019/12/27</t>
+  </si>
+  <si>
+    <t>2019/12/30
+~2020/12/31,
+2019/1/2
+~2020/1/3</t>
+  </si>
+  <si>
+    <t>1.网页直播: 微信网页openId授权,获取用户信息,连接flv视频流.
+2.礼品与奖卡页面发到线上，补充404页面，不同设备适配.</t>
+  </si>
+  <si>
+    <t>2020/1/6
+~2020/1/10</t>
+  </si>
+  <si>
+    <t>1.网页直播（微信）----a).视频流连接
+                     b).聊天互动
+                     c).微信浏览器设备兼容（ios,跨域,样式优化）</t>
+  </si>
+  <si>
+    <t>2020/1/13
+~2020/1/17</t>
+  </si>
+  <si>
+    <t>1.网页直播（微信）----a).
+2.大班课直播后台管理----a).创建房间更新等
+                       b).扫码添加助教、查询助教、微信扫码成功页面</t>
+  </si>
+  <si>
+    <t>2020/3/30
+~2020/4/3</t>
+  </si>
+  <si>
+    <t>1.有课后台:update: a)创建班级时，选择助教
+                   b)班级列表，搜索不到该手机号时的提示
+                   c) 创建课程改为竖屏;其他小改动</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,21 +1168,207 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -550,9 +1376,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -570,10 +1638,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -864,25 +1979,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A45" sqref="$A45:$XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="186.95" customHeight="1">
+    <row r="1" ht="187" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="129" customHeight="1">
+    <row r="2" ht="129" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,7 +2013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="129" customHeight="1">
+    <row r="3" ht="129" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,7 +2021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="129" customHeight="1">
+    <row r="4" ht="129" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,7 +2029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="129" customHeight="1">
+    <row r="5" ht="129" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,7 +2037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="129" customHeight="1">
+    <row r="6" ht="129" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -930,7 +2045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="129" customHeight="1">
+    <row r="7" ht="129" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -938,7 +2053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="129" customHeight="1">
+    <row r="8" ht="129" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -946,7 +2061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="129" customHeight="1">
+    <row r="9" ht="129" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -954,7 +2069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="129" customHeight="1">
+    <row r="10" ht="129" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -962,7 +2077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="129" customHeight="1">
+    <row r="11" ht="129" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -970,7 +2085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="129" customHeight="1">
+    <row r="12" ht="129" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -978,7 +2093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="129" customHeight="1">
+    <row r="13" ht="129" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -986,7 +2101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="129" customHeight="1">
+    <row r="14" ht="129" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -994,7 +2109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="129" customHeight="1">
+    <row r="15" ht="129" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1002,7 +2117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="129" customHeight="1">
+    <row r="16" ht="129" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1010,7 +2125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="129" customHeight="1">
+    <row r="17" ht="129" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1018,7 +2133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="129" customHeight="1">
+    <row r="18" ht="129" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +2141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="129" customHeight="1">
+    <row r="19" ht="129" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1034,7 +2149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="129" customHeight="1">
+    <row r="20" ht="129" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1042,7 +2157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="129" customHeight="1">
+    <row r="21" ht="129" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1050,7 +2165,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="129" customHeight="1">
+    <row r="22" ht="129" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1058,7 +2173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="129" customHeight="1">
+    <row r="23" ht="129" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1066,7 +2181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="129" customHeight="1">
+    <row r="24" ht="129" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1074,7 +2189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="129" customHeight="1">
+    <row r="25" ht="129" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1082,7 +2197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="129" customHeight="1">
+    <row r="26" ht="129" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1090,7 +2205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="129" customHeight="1">
+    <row r="27" ht="129" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1098,7 +2213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="129" customHeight="1">
+    <row r="28" ht="129" customHeight="1" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1106,124 +2221,269 @@
         <v>55</v>
       </c>
     </row>
+    <row r="29" ht="129" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" ht="129" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="129" customHeight="1" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" ht="129" customHeight="1" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="201" customHeight="1" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="201" customHeight="1" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" ht="201" customHeight="1" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" ht="201" customHeight="1" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" ht="201" customHeight="1" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" ht="201" customHeight="1" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" ht="201" customHeight="1" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" ht="201" customHeight="1" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" ht="201" customHeight="1" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" ht="201" customHeight="1" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" ht="201" customHeight="1" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" ht="201" customHeight="1" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" ht="201" customHeight="1" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" ht="201" customHeight="1" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="70.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="186.95" customHeight="1">
+    <row r="1" ht="187" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="186.95" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" ht="187" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="186.95" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" ht="187" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="186.95" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" ht="187" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="129" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" ht="129" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="129" customHeight="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" ht="129" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="129" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" ht="129" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="129" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" ht="129" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="129" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" ht="129" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="129" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" ht="129" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="129" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" ht="129" customHeight="1" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="129" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" ht="129" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="129" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" ht="129" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +2491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="129" customHeight="1">
+    <row r="14" ht="129" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1239,7 +2499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="129" customHeight="1">
+    <row r="15" ht="129" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1247,7 +2507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="129" customHeight="1">
+    <row r="16" ht="129" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +2515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="129" customHeight="1">
+    <row r="17" ht="129" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1263,7 +2523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="129" customHeight="1">
+    <row r="18" ht="129" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1271,7 +2531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="129" customHeight="1">
+    <row r="19" ht="129" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1279,7 +2539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="129" customHeight="1">
+    <row r="20" ht="129" customHeight="1" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1287,7 +2547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="129" customHeight="1">
+    <row r="21" ht="129" customHeight="1" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1295,94 +2555,450 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="129" customHeight="1">
+    <row r="22" ht="129" customHeight="1" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="129" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" ht="129" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="129" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" ht="129" customHeight="1" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="129" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" ht="129" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" ht="129" customHeight="1" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" ht="129" customHeight="1" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" ht="129" customHeight="1" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" ht="129" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" ht="201" customHeight="1" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" ht="201" customHeight="1" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" ht="201" customHeight="1" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" ht="201" customHeight="1" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="129" customHeight="1">
-      <c r="A26" s="1" t="s">
+    <row r="34" ht="201" customHeight="1" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="129" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row r="35" ht="201" customHeight="1" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="36" ht="201" customHeight="1" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" ht="201" customHeight="1" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" ht="201" customHeight="1" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" ht="201" customHeight="1" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" ht="201" customHeight="1" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" ht="201" customHeight="1" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" ht="201" customHeight="1" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" ht="201" customHeight="1" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" ht="201" customHeight="1" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" ht="201" customHeight="1" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" ht="201" customHeight="1" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" ht="201" customHeight="1" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" ht="201" customHeight="1" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" ht="201" customHeight="1" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" ht="201" customHeight="1" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" ht="201" customHeight="1" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" ht="201" customHeight="1" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" ht="201" customHeight="1" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" ht="201" customHeight="1" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" ht="201" customHeight="1" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" ht="201" customHeight="1" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" ht="201" customHeight="1" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" ht="201" customHeight="1" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" ht="201" customHeight="1" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" ht="201" customHeight="1" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" ht="201" customHeight="1" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" ht="201" customHeight="1" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" ht="201" customHeight="1" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" ht="201" customHeight="1" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" ht="201" customHeight="1" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" ht="201" customHeight="1" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" ht="201" customHeight="1" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" ht="201" customHeight="1" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" ht="201" customHeight="1" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" ht="201" customHeight="1" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" ht="201" customHeight="1" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" ht="201" customHeight="1" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" ht="201" customHeight="1" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" ht="201" customHeight="1" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="34.875" customWidth="1"/>
-    <col min="2" max="2" width="53.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="129" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="129" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -994,15 +994,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1017,48 +1032,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1071,53 +1047,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,6 +1067,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1146,7 +1146,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,7 +1183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,25 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1219,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,109 +1339,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,45 +1374,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1427,26 +1388,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,8 +1410,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1482,10 +1482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,133 +1494,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,8 @@
   <si>
     <t>1.有课后台:update: a)创建班级时，选择助教
                    b)班级列表，搜索不到该手机号时的提示
-                   c) 创建课程改为竖屏;其他小改动</t>
+                   c) 创建课程改为竖屏;其他小改动
+2.有课后台:add:财务管理 a) 充值</t>
   </si>
 </sst>
 </file>
@@ -994,30 +995,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1032,9 +1018,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1047,6 +1072,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,70 +1139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,14 +1148,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,7 +1184,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,18 +1220,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1219,6 +1232,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1231,7 +1304,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,127 +1352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,6 +1375,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1388,6 +1428,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,67 +1470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1482,10 +1483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,133 +1495,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -989,16 +989,34 @@
                    c) 创建课程改为竖屏;其他小改动
 2.有课后台:add:财务管理 a) 充值</t>
   </si>
+  <si>
+    <t>2020/4/7
+~2020/4/10</t>
+  </si>
+  <si>
+    <t>1.有课后台:add:财务管理 b) 总览
+                       c) 详情
+                       d) 接口联调
+2.风控web端打包源码出错bug fixed</t>
+  </si>
+  <si>
+    <t>2020/4/13
+~2020/4/17</t>
+  </si>
+  <si>
+    <t>1.有课后台:财务管理：fix: 1.分页bug；余额每个页面重新查询一次；: 导出账单标题中文,order_id不显示等等。
+                    update: 1.外观样式调整等</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1016,16 +1034,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1033,7 +1057,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,39 +1110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,38 +1126,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,15 +1165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,13 +1202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1226,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,25 +1316,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,127 +1376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,6 +1393,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1396,8 +1444,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,21 +1483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1442,39 +1493,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1483,10 +1501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,133 +1513,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2376,10 +2394,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2978,6 +2996,22 @@
       </c>
       <c r="B74" s="2" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="75" ht="201" customHeight="1" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" ht="201" customHeight="1" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="180">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1004,8 +1004,16 @@
 ~2020/4/17</t>
   </si>
   <si>
-    <t>1.有课后台:财务管理：fix: 1.分页bug；余额每个页面重新查询一次；: 导出账单标题中文,order_id不显示等等。
+    <t>1.有课后台:财务管理：fix: 1.分页bug；余额每个页面重新查询一次；: 导出账单标题中文,order_id不显示等等。fix: excel中数字列不能求和的bug
                     update: 1.外观样式调整等</t>
+  </si>
+  <si>
+    <t>2020/4/20
+~2020/4/24</t>
+  </si>
+  <si>
+    <t>1.有课后台:财务管理：update: 1.查询条件保存上次的,回退时恢复
+2.海豚线索:直播管理：1.add: 创建直播间增加video_id字段</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1021,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1034,10 +1042,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,39 +1065,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,24 +1081,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1126,32 +1120,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,7 +1165,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,7 +1210,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1252,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,157 +1384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,36 +1401,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1444,26 +1422,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,6 +1443,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1493,6 +1468,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1501,145 +1509,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2394,10 +2402,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3012,6 +3020,14 @@
       </c>
       <c r="B76" s="2" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="77" ht="201" customHeight="1" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1012,8 +1012,10 @@
 ~2020/4/24</t>
   </si>
   <si>
-    <t>1.有课后台:财务管理：update: 1.查询条件保存上次的,回退时恢复
-2.海豚线索:直播管理：1.add: 创建直播间增加video_id字段</t>
+    <t xml:space="preserve">1.有课后台:财务管理：update: 1.查询条件保存上次的,回退时恢复
+2.海豚线索:直播管理：a)add: 创建直播间增加可选视频列表选项
+                    b)add: 上传伪直播的视频
+</t>
   </si>
 </sst>
 </file>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1013,8 +1013,30 @@
   </si>
   <si>
     <t xml:space="preserve">1.有课后台:财务管理：update: 1.查询条件保存上次的,回退时恢复
+                    1.有课后台
+         班级、课程管理： 
+                    add: a) 进入首页UI改版
+                            b) 查询班级列表 无班级时缺省页UI
+                    add&amp;refactor:  a) 所有页面统一增加面包屑控件
+                                             b) 公开课管理缺省页抽取成公共组件
+                    update: a) 班课管理、公开课管理导航栏位置调整
+                            b) 业务类型组件样式调整,查询重置按钮风格统一
+                            c) 网站导航路径：2,3级为返回，1级显示名称
+                            d) 其他样式等
 2.海豚线索:直播管理：a)add: 创建直播间增加可选视频列表选项
                     b)add: 上传伪直播的视频
+</t>
+  </si>
+  <si>
+    <t>2020/4/26
+~2020/4/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台: update: 创建班级课、公开课后的分别跳转
+          fix: 首页在大小屏幕上的兼容性显示
+          update：a) 创建课程，上一步、下一步页面返回逻辑的分别处理
+                  b) 查询按钮布局统一调整.
+                  c) 其他小的bug(文案等)
 </t>
   </si>
 </sst>
@@ -1046,7 +1068,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,30 +1089,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1105,9 +1103,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,11 +1118,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1146,28 +1157,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,7 +1181,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1212,6 +1234,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1242,60 +1408,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1303,96 +1415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,17 +1428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,21 +1448,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,11 +1469,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,25 +1486,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,145 +1533,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2404,10 +2426,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3030,6 +3052,14 @@
       </c>
       <c r="B77" s="2" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="78" ht="201" customHeight="1" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="184">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1039,6 +1039,16 @@
                   c) 其他小的bug(文案等)
 </t>
   </si>
+  <si>
+    <t>2020/5/7
+~2020/5/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.海豚-直播后台-a).海豚后台修改直播中状态时只能修改结束时间 
+               b).新建房间提示非法uid, 同时又显示创建成功, 实际上没有创建成功 
+               c).后台创建直播时, 选择时间框默认开始时间填当前时间, 结束时间为当前时间+1小时
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1068,7 +1078,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,6 +1099,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1103,8 +1137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,25 +1153,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1157,23 +1178,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,23 +1207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,6 +1244,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1253,168 +1425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,6 +1435,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1446,82 +1530,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,10 +1543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1548,130 +1558,130 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2426,10 +2436,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3060,6 +3070,14 @@
       </c>
       <c r="B78" s="2" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="79" ht="201" customHeight="1" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="190">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1044,9 +1044,37 @@
 ~2020/5/9</t>
   </si>
   <si>
-    <t xml:space="preserve">1.海豚-直播后台-a).海豚后台修改直播中状态时只能修改结束时间 
+    <t>1.海豚-直播后台-a).海豚后台修改直播中状态时只能修改结束时间 
                b).新建房间提示非法uid, 同时又显示创建成功, 实际上没有创建成功 
                c).后台创建直播时, 选择时间框默认开始时间填当前时间, 结束时间为当前时间+1小时
+2.有课后台： a) 小班课开启短信开课通知</t>
+  </si>
+  <si>
+    <t>2020/5/11
+~2020/5/15</t>
+  </si>
+  <si>
+    <t>1.海豚-直播后台-a).已经上传的视频列表、删除视频
+2.有课web端----a). 项目依赖包的更新（@babel/core&amp;polyfill等）
+3.有课后台----a).add: 1.账单列表增加赠送余额;2.交易详情增加赠送余额等明细;3.充值入口开放;4.机构的赠送余额显示、提交 5.新增机构、财务角色</t>
+  </si>
+  <si>
+    <t>2020/5/18
+~2020/5/22</t>
+  </si>
+  <si>
+    <t>1.有课后台----a).bug修复、充值权限设置等等
+              b). js错误上报监控(仅开发测试)
+              c). 排课时增加预扣费提示
+              d). 当机构欠费后，该机构下主管账号只能登陆后台，只显示我的课程，我的班级列表以及财务总览，只能查看课程以及查看班级，禁止创建班级，添加班级成员以及排课的操作</t>
+  </si>
+  <si>
+    <t>2020/5/25
+~2020/5/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台----a). webpack开发模式优化
+              b). update: 用户协议更新;
 </t>
   </si>
 </sst>
@@ -1070,7 +1098,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,15 +1159,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,9 +1181,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1123,17 +1202,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1153,61 +1234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,7 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,6 +1296,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1274,19 +1320,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,7 +1422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,67 +1434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,48 +1453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,6 +1463,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1463,31 +1506,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,25 +1550,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1543,10 +1571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1555,10 +1583,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1567,121 +1595,121 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2436,10 +2464,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3078,6 +3106,30 @@
       </c>
       <c r="B79" s="2" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="80" ht="201" customHeight="1" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" ht="201" customHeight="1" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" ht="201" customHeight="1" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="192">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1077,16 +1077,28 @@
               b). update: 用户协议更新;
 </t>
   </si>
+  <si>
+    <t>2020/6/1
+~2020/6/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台----1.fix: 我的课程页面查询班级类型的参数错误;fix: 微信windows平台打开后台的bug；IE浏览器9以上的首页UI兼容;排课权限设置里面的修改角色bug
+              2.add: 统计上报脚本运行错误、不兼容等等的浏览器信息
+              3.fix: a), 'caller', 'callee', and 'arguments' properties may not be accessed on strict mode functions
+                     b),空引用 null的bug
+              4.add-feat: 从生产环境的bug-report映射为源代码的具体位置 ？
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1098,22 +1110,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,8 +1140,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,44 +1207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,6 +1229,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1231,13 +1250,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1272,7 +1284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,175 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,16 +1479,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,30 +1522,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,6 +1560,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1571,10 +1583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,133 +1595,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2464,10 +2476,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3130,6 +3142,14 @@
       </c>
       <c r="B82" s="2" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="83" ht="201" customHeight="1" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,9 @@
               2.add: 统计上报脚本运行错误、不兼容等等的浏览器信息
               3.fix: a), 'caller', 'callee', and 'arguments' properties may not be accessed on strict mode functions
                      b),空引用 null的bug
-              4.add-feat: 从生产环境的bug-report映射为源代码的具体位置 ？
+              4.add-feat: 从生产环境的bug-report映射为源代码的具体位置
+              5.update: a).导出账单增加订单号 列
+                        b).课程详情里的班级成员列表增加进入、离开房间时间列
 </t>
   </si>
 </sst>
@@ -1095,10 +1097,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1118,7 +1120,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,35 +1173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,24 +1181,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1237,19 +1219,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,7 +1286,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,55 +1418,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,109 +1466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,30 +1477,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1522,26 +1500,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,6 +1533,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1583,145 +1585,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="194">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1089,6 +1089,15 @@
               4.add-feat: 从生产环境的bug-report映射为源代码的具体位置
               5.update: a).导出账单增加订单号 列
                         b).课程详情里的班级成员列表增加进入、离开房间时间列
+</t>
+  </si>
+  <si>
+    <t>2020/6/7
+~2020/6/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台----1.add-feat: 价格服务；个人VIP；
+             2.add-cont: 用户协议的h5链接;
 </t>
   </si>
 </sst>
@@ -1286,6 +1295,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1304,7 +1325,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,7 +1379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,37 +1433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,6 +1457,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1418,55 +1475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,10 +1594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1597,130 +1606,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2478,10 +2487,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3152,6 +3161,14 @@
       </c>
       <c r="B83" s="2" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="84" ht="201" customHeight="1" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1096,8 +1096,9 @@
 ~2020/6/12</t>
   </si>
   <si>
-    <t xml:space="preserve">1.有课后台----1.add-feat: 价格服务；个人VIP；
-             2.add-cont: 用户协议的h5链接;
+    <t xml:space="preserve">1.有课后台----1.add-feat: 价格服务；
+             2. add-feat: 个人VIP管理；
+             3.add-cont: 用户协议的h5链接;
 </t>
   </si>
 </sst>
@@ -1242,8 +1243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,9 +1258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,6 +1302,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1313,30 +1338,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1349,7 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,12 +1362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1385,7 +1380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,6 +1410,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1421,7 +1458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,48 +1477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,10 +1595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1606,115 +1607,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1723,13 +1724,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670" activeTab="1"/>
+    <workbookView windowWidth="19860" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1097,8 @@
   </si>
   <si>
     <t xml:space="preserve">1.有课后台----1.add-feat: 价格服务；
-             2. add-feat: 个人VIP管理；
+             2.1 add-feat: 个人VIP管理；
+             2.2 add-feat: 个人财务查询
              3.add-cont: 用户协议的h5链接;
 </t>
   </si>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19860" windowHeight="11670" activeTab="1"/>
+    <workbookView windowWidth="19860" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1102,6 +1102,18 @@
              3.add-cont: 用户协议的h5链接;
 </t>
   </si>
+  <si>
+    <t>2020/6/15
+~2020/6/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台--VIP充值、管理----1.扫码支付成功后，跳转到新的页面
+                            2.个人VIP管理中，可以禁用VIP
+                            3. 其他bug、样式更新
+                            4.add: a).有课在线VIP用户协议
+                                   b). 个人VIP过期禁用变灰 等
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1109,9 +1121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2489,10 +2501,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3171,6 +3183,14 @@
       </c>
       <c r="B84" s="2" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="85" ht="201" customHeight="1" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1121,9 +1121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1256,9 +1256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1271,8 +1270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,6 +1315,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1327,25 +1339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,13 +1363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,13 +1399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,7 +1423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,13 +1441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,13 +1465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,13 +1483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,142 +1608,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19860" windowHeight="7590" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="198">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1114,6 +1114,14 @@
                                    b). 个人VIP过期禁用变灰 等
 </t>
   </si>
+  <si>
+    <t>2020/6/21
+~2020/6/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台--add-feat:教研角色增加 课件管理的权限
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1121,9 +1129,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1256,8 +1264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1270,9 +1279,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,18 +1323,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1339,13 +1335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,19 +1371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,13 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,13 +1443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,13 +1491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,10 +1616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1620,115 +1628,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,13 +1745,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2501,10 +2509,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3191,6 +3199,14 @@
       </c>
       <c r="B85" s="2" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="86" ht="201" customHeight="1" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1120,6 +1120,24 @@
   </si>
   <si>
     <t xml:space="preserve">1.有课后台--add-feat:教研角色增加 课件管理的权限
+</t>
+  </si>
+  <si>
+    <t>2020/6/29
+~2020/7/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台--个人Vip小更新
+</t>
+  </si>
+  <si>
+    <t>2020/7/6
+~2020/7/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.有课后台--a) 监课管理页面：查询、添加、删除、更新;
+            b) 监课管理流程页面.
+            c) 机构、财务增加权限查看”个人财务“
 </t>
   </si>
 </sst>
@@ -1317,12 +1335,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1341,12 +1353,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1360,12 +1366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,12 +1395,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1413,19 +1407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,19 +1431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,6 +1444,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,7 +1485,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,145 +1634,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2509,10 +2527,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3207,6 +3225,22 @@
       </c>
       <c r="B86" s="2" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="87" ht="201" customHeight="1" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" ht="201" customHeight="1" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1135,10 +1135,13 @@
 ~2020/7/10</t>
   </si>
   <si>
-    <t xml:space="preserve">1.有课后台--a) 监课管理页面：查询、添加、删除、更新;
+    <t>1.有课后台--a) 监课管理页面：查询、添加、删除、更新;
             b) 监课管理流程页面.
             c) 机构、财务增加权限查看”个人财务“
-</t>
+优化内容：e)管理员视角 1 管理员可以看到所有人机构的监课成员信息（管理员视角增加一列 业务类型）
+2 管理员上面筛选条件，增加一个按 业务类型的筛选项
+3 管理员添加监课账号时，默认是添加到管理员自己所在业务，也可以选择添加到指定业务
+          f) 管理员、主管： 只能删除同一业务类型下的监课账号</t>
   </si>
 </sst>
 </file>
@@ -1146,9 +1149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1157,13 +1160,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1190,44 +1186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1246,9 +1204,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1269,14 +1227,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,15 +1299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1335,19 +1338,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,157 +1518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,17 +1588,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1626,6 +1618,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1634,10 +1637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,133 +1649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="206">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1143,15 +1143,30 @@
 3 管理员添加监课账号时，默认是添加到管理员自己所在业务，也可以选择添加到指定业务
           f) 管理员、主管： 只能删除同一业务类型下的监课账号</t>
   </si>
+  <si>
+    <t>2020/7/13
+~2020/7/17</t>
+  </si>
+  <si>
+    <t>1.有课后台--a) 监课管理页面：图片更新;</t>
+  </si>
+  <si>
+    <t>2020/7/20
+~2020/7/24</t>
+  </si>
+  <si>
+    <t>1.海豚后台--a) add-feat: tmk面板数据统计;
+2.有课后台--a) fix-bug: 身份设置页面----数据表格分页控件样式bug</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1160,6 +1175,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1186,6 +1215,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1204,9 +1264,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,21 +1287,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,53 +1316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,7 +1353,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,31 +1425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,13 +1467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,43 +1509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,37 +1533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,6 +1603,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1618,17 +1644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1637,10 +1652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1649,133 +1664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2530,10 +2545,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3244,6 +3259,22 @@
       </c>
       <c r="B88" s="2" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="89" ht="201" customHeight="1" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" ht="201" customHeight="1" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="208">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1158,6 +1158,13 @@
     <t>1.海豚后台--a) add-feat: tmk面板数据统计;
 2.有课后台--a) fix-bug: 身份设置页面----数据表格分页控件样式bug</t>
   </si>
+  <si>
+    <t>2020/7/27
+~2020/7/31</t>
+  </si>
+  <si>
+    <t>1.海豚后台--a) add-feat: tmk面板数据统计; +</t>
+  </si>
 </sst>
 </file>
 
@@ -1178,28 +1185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1210,37 +1195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,9 +1218,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1287,14 +1241,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,8 +1321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,66 +1360,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1425,13 +1372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,13 +1396,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,25 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,13 +1462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,7 +1498,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,21 +1551,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1603,17 +1595,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1636,6 +1617,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1644,6 +1640,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1652,10 +1659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1664,133 +1671,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2545,10 +2552,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3275,6 +3282,14 @@
       </c>
       <c r="B90" s="2" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="91" ht="201" customHeight="1" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1163,7 +1163,15 @@
 ~2020/7/31</t>
   </si>
   <si>
-    <t>1.海豚后台--a) add-feat: tmk面板数据统计; +</t>
+    <t>1.海豚后台--a) add-feat: tmk面板数据统计;(管理员，tmk,队长,tmk主管) +
+            b) update: tmk面板的一些优化补充:
+                1.跟进人依所属部门联动
+                2.日期默认今天
+                4.跳转后的页面带入默认用户信息（uid,dept_id）参数
+                3.UI改版
+                5.1.有下级子部门的，不查询数据；最后一级才查询数据
+                5.2.图片资源加载的bug
+                5.3.其他bug</t>
   </si>
 </sst>
 </file>
@@ -1171,10 +1179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1186,10 +1194,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1202,7 +1210,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,9 +1248,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1232,18 +1262,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1255,7 +1293,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,20 +1322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1291,39 +1330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,6 +1374,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1378,30 +1392,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1409,12 +1399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,7 +1446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,12 +1483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,6 +1528,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1551,15 +1559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1574,6 +1573,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1595,24 +1627,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,26 +1659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1659,10 +1667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1671,133 +1679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1179,10 +1179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1193,16 +1193,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,7 +1279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,6 +1293,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1271,29 +1317,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,37 +1332,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,30 +1368,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1404,7 +1380,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,36 +1530,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1488,67 +1542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,6 +1559,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1573,39 +1597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,17 +1636,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,10 +1667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1679,133 +1679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="210">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1173,6 +1173,18 @@
                 5.2.图片资源加载的bug
                 5.3.其他bug</t>
   </si>
+  <si>
+    <t>2020/8/3
+~2020/8/7</t>
+  </si>
+  <si>
+    <t>1.有课后台--a) add-feat: 监课管理 &gt;&gt; 批量删除; +
+              add-feat: 个人VIP管理 &gt;&gt; 批量禁用; +
+              add-feat: 学科管理 &gt;&gt; 批量删除; +
+              add-feat: 师资管理 &gt;&gt; 批量停/启用、编辑; +
+              add-feat: 账号管理 -&gt; 排课权限设置 &gt;&gt; 批量编辑角色、学科;+
+              add-feat: 账号管理 -&gt; 身份设置 &gt;&gt; 批量编辑身份; ?</t>
+  </si>
 </sst>
 </file>
 
@@ -1194,6 +1206,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1202,7 +1221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,27 +1242,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1254,16 +1257,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,9 +1280,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,14 +1311,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,21 +1335,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1368,6 +1380,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1380,13 +1446,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,127 +1560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,17 +1574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,17 +1598,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1618,11 +1626,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1637,25 +1643,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,145 +1679,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2560,10 +2572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3298,6 +3310,14 @@
       </c>
       <c r="B91" s="2" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="92" ht="201" customHeight="1" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="20100" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1185,6 +1185,14 @@
               add-feat: 账号管理 -&gt; 排课权限设置 &gt;&gt; 批量编辑角色、学科;+
               add-feat: 账号管理 -&gt; 身份设置 &gt;&gt; 批量编辑身份; ?</t>
   </si>
+  <si>
+    <t>2020/8/10
+~2020/8/14</t>
+  </si>
+  <si>
+    <t>1.有课后台--a) add-feat: 账号管理 -&gt; 身份设置 &gt;&gt; 批量编辑身份、删除; +
+               add-feat: 我的班级 -&gt; 班级详情 &gt;&gt; 批量更换老师、时间; +</t>
+  </si>
 </sst>
 </file>
 
@@ -1206,13 +1214,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1221,7 +1222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,11 +1243,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1257,16 +1274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,15 +1297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,23 +1322,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1335,15 +1337,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,13 +1388,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,13 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,37 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,19 +1496,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,12 +1538,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1524,43 +1550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,6 +1579,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1592,82 +1674,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,10 +1687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1691,16 +1699,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1709,115 +1717,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2572,10 +2580,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3318,6 +3326,14 @@
       </c>
       <c r="B92" s="2" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="93" ht="201" customHeight="1" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20100" windowHeight="8160" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -1191,7 +1191,8 @@
   </si>
   <si>
     <t>1.有课后台--a) add-feat: 账号管理 -&gt; 身份设置 &gt;&gt; 批量编辑身份、删除; +
-               add-feat: 我的班级 -&gt; 班级详情 &gt;&gt; 批量更换老师、时间; +</t>
+               add-feat: 我的班级 -&gt; 班级详情 &gt;&gt; 批量更换老师、时间; +
+               样式的优化; ++</t>
   </si>
 </sst>
 </file>
@@ -1210,13 +1211,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,13 +1268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1322,14 +1309,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,67 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,19 +1413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,13 +1461,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,49 +1539,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,10 +1688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1699,133 +1700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1194,37 +1194,28 @@
                add-feat: 我的班级 -&gt; 班级详情 &gt;&gt; 批量更换老师、时间; +
                样式的优化; ++</t>
   </si>
+  <si>
+    <t>2020/8/17
+~2020/8/21</t>
+  </si>
+  <si>
+    <t>1.有课后台--a) 批量处理的相关BUG，以及优化等等</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1237,9 +1228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,14 +1251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1268,9 +1258,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,22 +1295,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1308,13 +1309,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1322,15 +1333,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1344,15 +1357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,7 +1396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,13 +1432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,13 +1450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,19 +1486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,13 +1510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,43 +1540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,31 +1570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,45 +1587,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1633,26 +1601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1675,8 +1623,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1688,10 +1695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1700,16 +1707,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1718,115 +1725,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2581,10 +2588,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3335,6 +3342,14 @@
       </c>
       <c r="B93" s="2" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="94" ht="201" customHeight="1" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -1207,30 +1207,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1245,9 +1230,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1265,29 +1289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1295,6 +1299,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1309,41 +1329,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,9 +1351,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,7 +1396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,13 +1432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,79 +1444,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,31 +1486,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,25 +1570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,6 +1587,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1601,6 +1640,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1623,67 +1682,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1695,10 +1695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1707,133 +1707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1201,14 +1201,23 @@
   <si>
     <t>1.有课后台--a) 批量处理的相关BUG，以及优化等等</t>
   </si>
+  <si>
+    <t>2020/8/24
+~2020/8/28</t>
+  </si>
+  <si>
+    <t>1.有课后台--a) add-linter: linter-loader(webpack),linter-eslint(atom integration),代码可读性，可维护性的优化
+           b) 代码健壮性的优化 test ???
+           c) 数据结构与算法的巩固、补充 ***</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1218,6 +1227,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1282,8 +1298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,14 +1360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1396,7 +1405,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,19 +1459,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,55 +1543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,25 +1561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,13 +1573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,12 +1586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,6 +1619,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,21 +1688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1695,10 +1704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1707,133 +1716,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2588,10 +2597,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3350,6 +3359,14 @@
       </c>
       <c r="B94" s="2" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="95" ht="201" customHeight="1" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1210,6 +1210,17 @@
            b) 代码健壮性的优化 test ???
            c) 数据结构与算法的巩固、补充 ***</t>
   </si>
+  <si>
+    <t>2020/8/31
+~2020/9/4</t>
+  </si>
+  <si>
+    <t>Nothing!</t>
+  </si>
+  <si>
+    <t>2020/9/7
+~2020/9/11</t>
+  </si>
 </sst>
 </file>
 
@@ -1227,13 +1238,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1298,9 +1302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,6 +1363,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1405,13 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,7 +1434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,31 +1458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,43 +1488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,19 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,7 +1536,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,13 +1572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,21 +1630,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1688,6 +1684,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1704,10 +1715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1716,133 +1727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2597,10 +2608,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3368,6 +3379,20 @@
       <c r="B95" s="2" t="s">
         <v>215</v>
       </c>
+    </row>
+    <row r="96" ht="201" customHeight="1" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" ht="201" customHeight="1" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="219">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1416,7 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,7 +1440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,7 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,7 +1494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,13 +1512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,7 +1548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,13 +1560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,13 +1590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,129 +1715,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1845,15 +1854,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3392,7 +3392,9 @@
       <c r="A97" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="220">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1221,14 +1221,17 @@
     <t>2020/9/7
 ~2020/9/11</t>
   </si>
+  <si>
+    <t>node.js</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2610,7 +2613,7 @@
   <sheetPr/>
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -3393,7 +3396,7 @@
         <v>218</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1222,7 +1222,14 @@
 ~2020/9/11</t>
   </si>
   <si>
-    <t>node.js</t>
+    <t>nothing!</t>
+  </si>
+  <si>
+    <t>2020/9/14
+~2020/9/18</t>
+  </si>
+  <si>
+    <t>1.有课后台---- a) fix-bug: 浏览器中直接修改localStorage,role字段,左侧菜单栏会变化.</t>
   </si>
 </sst>
 </file>
@@ -1230,8 +1237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1241,13 +1248,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,6 +1366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1419,61 +1426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,7 +1456,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,31 +1546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,49 +1576,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,10 +1725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,133 +1737,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2611,10 +2618,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A98" sqref="$A98:$XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3397,6 +3404,14 @@
       </c>
       <c r="B97" s="2" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="98" ht="201" customHeight="1" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="225">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1231,6 +1231,19 @@
   <si>
     <t>1.有课后台---- a) fix-bug: 浏览器中直接修改localStorage,role字段,左侧菜单栏会变化.</t>
   </si>
+  <si>
+    <t>2020/9/21
+~2020/9/27</t>
+  </si>
+  <si>
+    <t>2020/10/9
+~2020/10/10</t>
+  </si>
+  <si>
+    <t>1. 师资管理界面查询条件增加一个业务类型条件
+2. 显示的老师信息增加一列老师所属业务类型名字
+3. 给与管理员"停用|启用"老师的操作权限</t>
+  </si>
 </sst>
 </file>
 
@@ -1248,6 +1261,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,13 +1386,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1426,13 +1439,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,7 +1517,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,19 +1565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,13 +1583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,42 +1601,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1564,49 +1613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,10 +1738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,133 +1750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2618,10 +2631,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A98" sqref="$A98:$XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A100" sqref="$A100:$XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3412,6 +3425,22 @@
       </c>
       <c r="B98" s="2" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="99" ht="201" customHeight="1" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" ht="201" customHeight="1" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/工作周报.xlsx
+++ b/工作周报.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="227">
   <si>
     <t>2018/7/17
 ~2018/7/20</t>
@@ -1244,16 +1244,24 @@
 2. 显示的老师信息增加一列老师所属业务类型名字
 3. 给与管理员"停用|启用"老师的操作权限</t>
   </si>
+  <si>
+    <t>2020/10/12
+~2020/10/16</t>
+  </si>
+  <si>
+    <t>1. 有课后台上线。 +
+2. h5直播 ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1266,29 +1274,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,6 +1310,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1345,30 +1353,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1396,6 +1380,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,6 +1447,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1458,30 +1490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,24 +1520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,6 +1586,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,26 +1695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1730,6 +1718,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1738,10 +1746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1750,133 +1758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2631,10 +2639,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A100" sqref="$A100:$XFD100"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3441,6 +3449,14 @@
       </c>
       <c r="B100" s="2" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="101" ht="201" customHeight="1" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
